--- a/GeePostHandeler -Ahmad/data.xlsx
+++ b/GeePostHandeler -Ahmad/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="13335" windowHeight="6150"/>
+    <workbookView xWindow="240" yWindow="2715" windowWidth="17895" windowHeight="5370"/>
   </bookViews>
   <sheets>
     <sheet name="FileName" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="159">
   <si>
     <t>ردیف</t>
   </si>
@@ -85,7 +85,7 @@
     <t>پاکت</t>
   </si>
   <si>
-    <t>200669910700065270009111 </t>
+    <t>200669914400381370033111 </t>
   </si>
   <si>
     <t>نقش تمبر</t>
@@ -94,235 +94,400 @@
     <t>فعال</t>
   </si>
   <si>
-    <t>1399/04/14</t>
+    <t>1399/05/20</t>
   </si>
   <si>
     <t>پیشتاز عادی</t>
   </si>
   <si>
+    <t>اسلام شهر</t>
+  </si>
+  <si>
+    <t>گيکتوري</t>
+  </si>
+  <si>
+    <t>تهران</t>
+  </si>
+  <si>
+    <t>امير حسين کشاورز</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>سلطاني</t>
+  </si>
+  <si>
+    <t>200669914400380300009111 </t>
+  </si>
+  <si>
     <t>مشهد</t>
   </si>
   <si>
-    <t>گيکتوري</t>
-  </si>
-  <si>
-    <t>تهران</t>
-  </si>
-  <si>
-    <t>نجيبه کرمي</t>
-  </si>
-  <si>
-    <t>..</t>
-  </si>
-  <si>
-    <t>سلطاني</t>
-  </si>
-  <si>
-    <t>200669910700064200000111 </t>
-  </si>
-  <si>
-    <t>آنيتا صدقي پور</t>
-  </si>
-  <si>
-    <t>200669910700063120037111 </t>
-  </si>
-  <si>
-    <t>قم</t>
-  </si>
-  <si>
-    <t>شهرزاد خاکي</t>
-  </si>
-  <si>
-    <t>200669910700062050087111 </t>
-  </si>
-  <si>
-    <t>کاشان</t>
-  </si>
-  <si>
-    <t>ابوالفضل عباس زاده</t>
-  </si>
-  <si>
-    <t>200669910700061970045111 </t>
+    <t>سارا معراجي</t>
+  </si>
+  <si>
+    <t>200669914400379850045111 </t>
   </si>
   <si>
     <t>زنجان</t>
   </si>
   <si>
-    <t>اميد فرزاديان</t>
-  </si>
-  <si>
-    <t>200669910700060900047111 </t>
+    <t>عليرضا ابراهيم خاني</t>
+  </si>
+  <si>
+    <t>200669914400378770058111 </t>
+  </si>
+  <si>
+    <t>خوي</t>
+  </si>
+  <si>
+    <t>محمد امين سعيدي راد</t>
+  </si>
+  <si>
+    <t>200669914400377700048111 </t>
+  </si>
+  <si>
+    <t>ساري</t>
+  </si>
+  <si>
+    <t>مها مير محمدي</t>
+  </si>
+  <si>
+    <t>200669914400376620000111 </t>
+  </si>
+  <si>
+    <t>مائده مهري</t>
+  </si>
+  <si>
+    <t>200669914400375550668111 </t>
+  </si>
+  <si>
+    <t>سقز</t>
+  </si>
+  <si>
+    <t>سينا افشار</t>
+  </si>
+  <si>
+    <t>200669914400374470009111 </t>
+  </si>
+  <si>
+    <t>شيما زينلي</t>
+  </si>
+  <si>
+    <t>200669914400373400008111 </t>
+  </si>
+  <si>
+    <t>اصفهان</t>
+  </si>
+  <si>
+    <t>محمد حسين رضايي</t>
+  </si>
+  <si>
+    <t>200669914400372327557111 </t>
+  </si>
+  <si>
+    <t>بندرکنگان</t>
+  </si>
+  <si>
+    <t>پريسا سنان دار</t>
+  </si>
+  <si>
+    <t>200669914400371250065111 </t>
+  </si>
+  <si>
+    <t>همدان</t>
+  </si>
+  <si>
+    <t>مهران حسني</t>
+  </si>
+  <si>
+    <t>200669914400370170065111 </t>
+  </si>
+  <si>
+    <t>امير حسام نوروزي</t>
+  </si>
+  <si>
+    <t>200669914400369720005111 </t>
+  </si>
+  <si>
+    <t>تبريز</t>
+  </si>
+  <si>
+    <t>مهدي رفيعي</t>
+  </si>
+  <si>
+    <t>200669914400368650003111 </t>
+  </si>
+  <si>
+    <t>کرج</t>
+  </si>
+  <si>
+    <t>مجتبي اسحاقي</t>
+  </si>
+  <si>
+    <t>200669914400367570484111 </t>
+  </si>
+  <si>
+    <t>نکا</t>
+  </si>
+  <si>
+    <t>عهديه يوسفي</t>
+  </si>
+  <si>
+    <t>200669914400366500969111 </t>
+  </si>
+  <si>
+    <t>گناباد</t>
+  </si>
+  <si>
+    <t>مبينا رجايي</t>
+  </si>
+  <si>
+    <t>200669914400365420337111 </t>
+  </si>
+  <si>
+    <t>ورامین</t>
+  </si>
+  <si>
+    <t>سيد علي مهر حسيني</t>
+  </si>
+  <si>
+    <t>200669914400364350577111 </t>
+  </si>
+  <si>
+    <t>اشنويه</t>
+  </si>
+  <si>
+    <t>سوران اسدي</t>
+  </si>
+  <si>
+    <t>200669914400363270773111 </t>
+  </si>
+  <si>
+    <t>سرچشمه</t>
+  </si>
+  <si>
+    <t>حسين پژگان</t>
+  </si>
+  <si>
+    <t>200669914400362200000111 </t>
+  </si>
+  <si>
+    <t>مانا زند وکيلي</t>
+  </si>
+  <si>
+    <t>200669914400361120075111 </t>
+  </si>
+  <si>
+    <t>بوشهر</t>
+  </si>
+  <si>
+    <t>سپيده غريبي</t>
+  </si>
+  <si>
+    <t>200669914400360050003111 </t>
+  </si>
+  <si>
+    <t>علي تسلا</t>
+  </si>
+  <si>
+    <t>200669914400359600038111 </t>
+  </si>
+  <si>
+    <t>اراک</t>
+  </si>
+  <si>
+    <t>امير مهدي شمس</t>
+  </si>
+  <si>
+    <t>200669914400358520000111 </t>
+  </si>
+  <si>
+    <t>عطيه اکبري</t>
+  </si>
+  <si>
+    <t>200669914400357453165611 </t>
+  </si>
+  <si>
+    <t>فردیس</t>
+  </si>
+  <si>
+    <t>محمد رضا لک</t>
+  </si>
+  <si>
+    <t>200669914400356370000111 </t>
+  </si>
+  <si>
+    <t>زهرا نصيبي</t>
+  </si>
+  <si>
+    <t>200669914400355300000111 </t>
+  </si>
+  <si>
+    <t>عسل آقازاده</t>
+  </si>
+  <si>
+    <t>200669914400354220000111 </t>
+  </si>
+  <si>
+    <t>ريحانه حيادار</t>
+  </si>
+  <si>
+    <t>200669914400353150006111 </t>
+  </si>
+  <si>
+    <t>اهواز</t>
+  </si>
+  <si>
+    <t>موعود شيرالياهواز</t>
+  </si>
+  <si>
+    <t>200669914400352070006111 </t>
+  </si>
+  <si>
+    <t>فاطمه طهماسبي پور</t>
+  </si>
+  <si>
+    <t>200669914400351000003111 </t>
+  </si>
+  <si>
+    <t>آزاده اميني</t>
+  </si>
+  <si>
+    <t>200669914400350928143111 </t>
+  </si>
+  <si>
+    <t>بهارستان</t>
+  </si>
+  <si>
+    <t>محمد شير عليزاده</t>
+  </si>
+  <si>
+    <t>200669914400349470007111 </t>
+  </si>
+  <si>
+    <t>شيراز-فارس</t>
+  </si>
+  <si>
+    <t>زهره رزمي</t>
+  </si>
+  <si>
+    <t>200669914400348400008111 </t>
+  </si>
+  <si>
+    <t>سميرا اکبري</t>
+  </si>
+  <si>
+    <t>200669914400347320048111 </t>
+  </si>
+  <si>
+    <t>پارسا اديب</t>
+  </si>
+  <si>
+    <t>200669914400346250047111 </t>
   </si>
   <si>
     <t>بابل</t>
   </si>
   <si>
-    <t>علي حسن زاده</t>
-  </si>
-  <si>
-    <t>200669910700059450056111 </t>
-  </si>
-  <si>
-    <t>اردبيل</t>
-  </si>
-  <si>
-    <t>پريا مستقيمي</t>
-  </si>
-  <si>
-    <t>200669910700058370003111 </t>
-  </si>
-  <si>
-    <t>کرج</t>
-  </si>
-  <si>
-    <t>پرديس جايروند</t>
-  </si>
-  <si>
-    <t>200669910700057300849111 </t>
-  </si>
-  <si>
-    <t>فولادشهر</t>
-  </si>
-  <si>
-    <t>سارا دهقاني</t>
-  </si>
-  <si>
-    <t>200669910700056220008111 </t>
-  </si>
-  <si>
-    <t>اصفهان</t>
-  </si>
-  <si>
-    <t>محمد حسين سعادت</t>
-  </si>
-  <si>
-    <t>200669910700055150076111 </t>
+    <t>امير حسين باباجاني</t>
+  </si>
+  <si>
+    <t>200669914400345170003111 </t>
+  </si>
+  <si>
+    <t>سروش صديق</t>
+  </si>
+  <si>
+    <t>200669914400344100000111 </t>
+  </si>
+  <si>
+    <t>آنيتا باقري</t>
+  </si>
+  <si>
+    <t>200669914400343020000111 </t>
+  </si>
+  <si>
+    <t>عليزاده نسا</t>
+  </si>
+  <si>
+    <t>200669914400342950000111 </t>
+  </si>
+  <si>
+    <t>عرفان عرفاني تبار</t>
+  </si>
+  <si>
+    <t>200669914400341870045111 </t>
+  </si>
+  <si>
+    <t>علي رزاقي</t>
+  </si>
+  <si>
+    <t>200669914400340800066111 </t>
+  </si>
+  <si>
+    <t>سنندج</t>
+  </si>
+  <si>
+    <t>سارينا بکري</t>
+  </si>
+  <si>
+    <t>200669914400339350076111 </t>
   </si>
   <si>
     <t>کرمان</t>
   </si>
   <si>
-    <t>فاطمه هاشمي</t>
-  </si>
-  <si>
-    <t>200669910700054070008111 </t>
-  </si>
-  <si>
-    <t>ماهور کفاشيان</t>
-  </si>
-  <si>
-    <t>200669910700053000005111 </t>
-  </si>
-  <si>
-    <t>تبريز</t>
-  </si>
-  <si>
-    <t>ساسان کلاهي</t>
-  </si>
-  <si>
-    <t>200669910700052920006111 </t>
-  </si>
-  <si>
-    <t>اهواز</t>
-  </si>
-  <si>
-    <t>گلنوش کياني</t>
-  </si>
-  <si>
-    <t>200669910700051850089111 </t>
-  </si>
-  <si>
-    <t>يزد</t>
-  </si>
-  <si>
-    <t>محمدمهدي لاله زاري</t>
-  </si>
-  <si>
-    <t>200669910700050770000111 </t>
-  </si>
-  <si>
-    <t>محمد هراتي</t>
-  </si>
-  <si>
-    <t>200669910700049320003111 </t>
-  </si>
-  <si>
-    <t>آرشام ميکائيلي</t>
-  </si>
-  <si>
-    <t>200669910700048250076111 </t>
-  </si>
-  <si>
-    <t>امير نبي زاده</t>
-  </si>
-  <si>
-    <t>200669910700047170003111 </t>
-  </si>
-  <si>
-    <t>رها رضايي</t>
-  </si>
-  <si>
-    <t>200669910700046100635111 </t>
-  </si>
-  <si>
-    <t>بندرماهشهر</t>
-  </si>
-  <si>
-    <t>عاطفه اسکافي</t>
-  </si>
-  <si>
-    <t>200669910700045020068111 </t>
-  </si>
-  <si>
-    <t>خرم آباد-لرستان</t>
-  </si>
-  <si>
-    <t>آنيتا رئوفي راد</t>
-  </si>
-  <si>
-    <t>200669910700044950003111 </t>
-  </si>
-  <si>
-    <t>سحر مفتخر</t>
-  </si>
-  <si>
-    <t>200669910700043870087111 </t>
-  </si>
-  <si>
-    <t>محمد حسن سديد طاهري</t>
-  </si>
-  <si>
-    <t>200669910700042800038111 </t>
-  </si>
-  <si>
-    <t>اراک</t>
-  </si>
-  <si>
-    <t>حسين شوقي</t>
-  </si>
-  <si>
-    <t>200669910700041720688111 </t>
-  </si>
-  <si>
-    <t>دورود</t>
-  </si>
-  <si>
-    <t>فريد شريعتي</t>
-  </si>
-  <si>
-    <t>200669910700040650094111 </t>
-  </si>
-  <si>
-    <t>بجنورد</t>
-  </si>
-  <si>
-    <t>رضا ساسانيان</t>
-  </si>
-  <si>
-    <t>200669910700039200037111 </t>
-  </si>
-  <si>
-    <t>سيد علي حسيني</t>
+    <t>حسن صديقيان</t>
+  </si>
+  <si>
+    <t>200669914400338270006111 </t>
+  </si>
+  <si>
+    <t>سپهر بيگدلي</t>
+  </si>
+  <si>
+    <t>200669914400337200004111 </t>
+  </si>
+  <si>
+    <t>رشت</t>
+  </si>
+  <si>
+    <t>عسل عسگري</t>
+  </si>
+  <si>
+    <t>200669914400336120698111 </t>
+  </si>
+  <si>
+    <t>دهلران</t>
+  </si>
+  <si>
+    <t>شکوفه رفعتي</t>
+  </si>
+  <si>
+    <t>200669914400335050848111 </t>
+  </si>
+  <si>
+    <t>مبارکه-اصفهان</t>
+  </si>
+  <si>
+    <t>مائده هاشمي</t>
+  </si>
+  <si>
+    <t>200669914400334970063111 </t>
+  </si>
+  <si>
+    <t>آبادان</t>
+  </si>
+  <si>
+    <t>زهرا ماطوري</t>
+  </si>
+  <si>
+    <t>200669914400333900009111 </t>
+  </si>
+  <si>
+    <t>آرمين گودرزي</t>
   </si>
   <si>
     <t>جمع کل</t>
@@ -1318,7 +1483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1331,11 +1496,11 @@
     <col min="5" max="5" width="5.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" customWidth="1"/>
     <col min="10" max="10" width="6.42578125" customWidth="1"/>
     <col min="11" max="11" width="6.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.5703125" customWidth="1"/>
     <col min="14" max="14" width="5.5703125" customWidth="1"/>
     <col min="15" max="15" width="5" customWidth="1"/>
@@ -1441,7 +1606,7 @@
         <v>28</v>
       </c>
       <c r="I2" s="3">
-        <v>36878</v>
+        <v>38263</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>29</v>
@@ -1459,22 +1624,22 @@
         <v>33</v>
       </c>
       <c r="O2" s="3">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="P2" s="3">
-        <v>9036</v>
+        <v>6340</v>
       </c>
       <c r="Q2" s="3">
         <v>8000</v>
       </c>
       <c r="R2" s="3">
-        <v>100400</v>
+        <v>70440</v>
       </c>
       <c r="S2" s="3">
-        <v>109436</v>
+        <v>76780</v>
       </c>
       <c r="T2" s="3">
-        <v>6929</v>
+        <v>-1</v>
       </c>
       <c r="U2" s="3">
         <v>0</v>
@@ -1506,10 +1671,10 @@
         <v>27</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I3" s="3">
-        <v>36878</v>
+        <v>38263</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>29</v>
@@ -1518,7 +1683,7 @@
         <v>30</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>32</v>
@@ -1527,22 +1692,22 @@
         <v>33</v>
       </c>
       <c r="O3" s="3">
-        <v>90</v>
+        <v>370</v>
       </c>
       <c r="P3" s="3">
-        <v>6413</v>
+        <v>9481</v>
       </c>
       <c r="Q3" s="3">
         <v>8000</v>
       </c>
       <c r="R3" s="3">
-        <v>71250</v>
+        <v>105340</v>
       </c>
       <c r="S3" s="3">
-        <v>77663</v>
+        <v>114821</v>
       </c>
       <c r="T3" s="3">
-        <v>6926</v>
+        <v>-1</v>
       </c>
       <c r="U3" s="3">
         <v>0</v>
@@ -1559,7 +1724,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>24</v>
@@ -1574,10 +1739,10 @@
         <v>27</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I4" s="3">
-        <v>36878</v>
+        <v>38263</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>29</v>
@@ -1586,7 +1751,7 @@
         <v>30</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>32</v>
@@ -1595,22 +1760,22 @@
         <v>33</v>
       </c>
       <c r="O4" s="3">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="P4" s="3">
-        <v>7740</v>
+        <v>8725</v>
       </c>
       <c r="Q4" s="3">
         <v>8000</v>
       </c>
       <c r="R4" s="3">
-        <v>86000</v>
+        <v>96940</v>
       </c>
       <c r="S4" s="3">
-        <v>93740</v>
+        <v>105665</v>
       </c>
       <c r="T4" s="3">
-        <v>6929</v>
+        <v>-1</v>
       </c>
       <c r="U4" s="3">
         <v>0</v>
@@ -1627,7 +1792,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>24</v>
@@ -1642,10 +1807,10 @@
         <v>27</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" s="3">
-        <v>36878</v>
+        <v>38263</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>29</v>
@@ -1654,7 +1819,7 @@
         <v>30</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>32</v>
@@ -1666,19 +1831,19 @@
         <v>55</v>
       </c>
       <c r="P5" s="3">
-        <v>8280</v>
+        <v>8725</v>
       </c>
       <c r="Q5" s="3">
         <v>8000</v>
       </c>
       <c r="R5" s="3">
-        <v>92000</v>
+        <v>96940</v>
       </c>
       <c r="S5" s="3">
-        <v>100280</v>
+        <v>105665</v>
       </c>
       <c r="T5" s="3">
-        <v>6929</v>
+        <v>-1</v>
       </c>
       <c r="U5" s="3">
         <v>0</v>
@@ -1695,7 +1860,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>24</v>
@@ -1710,10 +1875,10 @@
         <v>27</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I6" s="3">
-        <v>36878</v>
+        <v>38263</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>29</v>
@@ -1722,7 +1887,7 @@
         <v>30</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>32</v>
@@ -1734,19 +1899,19 @@
         <v>55</v>
       </c>
       <c r="P6" s="3">
-        <v>8280</v>
+        <v>8185</v>
       </c>
       <c r="Q6" s="3">
         <v>8000</v>
       </c>
       <c r="R6" s="3">
-        <v>92000</v>
+        <v>90940</v>
       </c>
       <c r="S6" s="3">
-        <v>100280</v>
+        <v>99125</v>
       </c>
       <c r="T6" s="3">
-        <v>6929</v>
+        <v>-1</v>
       </c>
       <c r="U6" s="3">
         <v>0</v>
@@ -1763,7 +1928,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>24</v>
@@ -1778,10 +1943,10 @@
         <v>27</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I7" s="3">
-        <v>36878</v>
+        <v>38263</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>29</v>
@@ -1802,19 +1967,19 @@
         <v>55</v>
       </c>
       <c r="P7" s="3">
-        <v>7740</v>
+        <v>6857</v>
       </c>
       <c r="Q7" s="3">
         <v>8000</v>
       </c>
       <c r="R7" s="3">
-        <v>86000</v>
+        <v>76190</v>
       </c>
       <c r="S7" s="3">
-        <v>93740</v>
+        <v>83047</v>
       </c>
       <c r="T7" s="3">
-        <v>6929</v>
+        <v>-1</v>
       </c>
       <c r="U7" s="3">
         <v>0</v>
@@ -1849,7 +2014,7 @@
         <v>49</v>
       </c>
       <c r="I8" s="3">
-        <v>36878</v>
+        <v>38263</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>29</v>
@@ -1870,19 +2035,19 @@
         <v>55</v>
       </c>
       <c r="P8" s="3">
-        <v>8280</v>
+        <v>8725</v>
       </c>
       <c r="Q8" s="3">
         <v>8000</v>
       </c>
       <c r="R8" s="3">
-        <v>92000</v>
+        <v>96940</v>
       </c>
       <c r="S8" s="3">
-        <v>100280</v>
+        <v>105665</v>
       </c>
       <c r="T8" s="3">
-        <v>6929</v>
+        <v>-1</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
@@ -1914,10 +2079,10 @@
         <v>27</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I9" s="3">
-        <v>36878</v>
+        <v>38263</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>29</v>
@@ -1926,7 +2091,7 @@
         <v>30</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>32</v>
@@ -1938,19 +2103,19 @@
         <v>55</v>
       </c>
       <c r="P9" s="3">
-        <v>8442</v>
+        <v>9481</v>
       </c>
       <c r="Q9" s="3">
         <v>8000</v>
       </c>
       <c r="R9" s="3">
-        <v>93800</v>
+        <v>105340</v>
       </c>
       <c r="S9" s="3">
-        <v>102242</v>
+        <v>114821</v>
       </c>
       <c r="T9" s="3">
-        <v>6929</v>
+        <v>-1</v>
       </c>
       <c r="U9" s="3">
         <v>0</v>
@@ -1967,7 +2132,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>24</v>
@@ -1982,10 +2147,10 @@
         <v>27</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I10" s="3">
-        <v>36878</v>
+        <v>38263</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>29</v>
@@ -1994,7 +2159,7 @@
         <v>30</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>32</v>
@@ -2006,19 +2171,19 @@
         <v>55</v>
       </c>
       <c r="P10" s="3">
-        <v>8280</v>
+        <v>9481</v>
       </c>
       <c r="Q10" s="3">
         <v>8000</v>
       </c>
       <c r="R10" s="3">
-        <v>92000</v>
+        <v>105340</v>
       </c>
       <c r="S10" s="3">
-        <v>100280</v>
+        <v>114821</v>
       </c>
       <c r="T10" s="3">
-        <v>6929</v>
+        <v>-1</v>
       </c>
       <c r="U10" s="3">
         <v>0</v>
@@ -2035,7 +2200,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>24</v>
@@ -2050,10 +2215,10 @@
         <v>27</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I11" s="3">
-        <v>36878</v>
+        <v>38263</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>29</v>
@@ -2062,7 +2227,7 @@
         <v>30</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>32</v>
@@ -2074,19 +2239,19 @@
         <v>55</v>
       </c>
       <c r="P11" s="3">
-        <v>9036</v>
+        <v>8725</v>
       </c>
       <c r="Q11" s="3">
         <v>8000</v>
       </c>
       <c r="R11" s="3">
-        <v>100400</v>
+        <v>96940</v>
       </c>
       <c r="S11" s="3">
-        <v>109436</v>
+        <v>105665</v>
       </c>
       <c r="T11" s="3">
-        <v>6929</v>
+        <v>-1</v>
       </c>
       <c r="U11" s="3">
         <v>0</v>
@@ -2103,7 +2268,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>24</v>
@@ -2118,10 +2283,10 @@
         <v>27</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I12" s="3">
-        <v>36878</v>
+        <v>38263</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>29</v>
@@ -2130,7 +2295,7 @@
         <v>30</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>32</v>
@@ -2142,19 +2307,19 @@
         <v>55</v>
       </c>
       <c r="P12" s="3">
-        <v>8280</v>
+        <v>8725</v>
       </c>
       <c r="Q12" s="3">
         <v>8000</v>
       </c>
       <c r="R12" s="3">
-        <v>92000</v>
+        <v>96940</v>
       </c>
       <c r="S12" s="3">
-        <v>100280</v>
+        <v>105665</v>
       </c>
       <c r="T12" s="3">
-        <v>6929</v>
+        <v>-1</v>
       </c>
       <c r="U12" s="3">
         <v>0</v>
@@ -2171,7 +2336,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>24</v>
@@ -2186,10 +2351,10 @@
         <v>27</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I13" s="3">
-        <v>36878</v>
+        <v>38263</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>29</v>
@@ -2198,7 +2363,7 @@
         <v>30</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>32</v>
@@ -2210,19 +2375,19 @@
         <v>55</v>
       </c>
       <c r="P13" s="3">
-        <v>9036</v>
+        <v>8725</v>
       </c>
       <c r="Q13" s="3">
         <v>8000</v>
       </c>
       <c r="R13" s="3">
-        <v>100400</v>
+        <v>96940</v>
       </c>
       <c r="S13" s="3">
-        <v>109436</v>
+        <v>105665</v>
       </c>
       <c r="T13" s="3">
-        <v>6929</v>
+        <v>-1</v>
       </c>
       <c r="U13" s="3">
         <v>0</v>
@@ -2239,7 +2404,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>24</v>
@@ -2254,10 +2419,10 @@
         <v>27</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I14" s="3">
-        <v>36878</v>
+        <v>38263</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>29</v>
@@ -2266,7 +2431,7 @@
         <v>30</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>32</v>
@@ -2278,19 +2443,19 @@
         <v>55</v>
       </c>
       <c r="P14" s="3">
-        <v>9036</v>
+        <v>9481</v>
       </c>
       <c r="Q14" s="3">
         <v>8000</v>
       </c>
       <c r="R14" s="3">
-        <v>100400</v>
+        <v>105340</v>
       </c>
       <c r="S14" s="3">
-        <v>109436</v>
+        <v>114821</v>
       </c>
       <c r="T14" s="3">
-        <v>6929</v>
+        <v>-1</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -2307,7 +2472,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>24</v>
@@ -2322,10 +2487,10 @@
         <v>27</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="3">
-        <v>36878</v>
+        <v>38263</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>29</v>
@@ -2334,7 +2499,7 @@
         <v>30</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>32</v>
@@ -2346,19 +2511,19 @@
         <v>55</v>
       </c>
       <c r="P15" s="3">
-        <v>9036</v>
+        <v>8887</v>
       </c>
       <c r="Q15" s="3">
         <v>8000</v>
       </c>
       <c r="R15" s="3">
-        <v>100400</v>
+        <v>98740</v>
       </c>
       <c r="S15" s="3">
-        <v>109436</v>
+        <v>107627</v>
       </c>
       <c r="T15" s="3">
-        <v>6929</v>
+        <v>-1</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -2375,7 +2540,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>24</v>
@@ -2390,10 +2555,10 @@
         <v>27</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I16" s="3">
-        <v>36878</v>
+        <v>38263</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>29</v>
@@ -2402,7 +2567,7 @@
         <v>30</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>32</v>
@@ -2414,19 +2579,19 @@
         <v>55</v>
       </c>
       <c r="P16" s="3">
-        <v>8280</v>
+        <v>8185</v>
       </c>
       <c r="Q16" s="3">
         <v>8000</v>
       </c>
       <c r="R16" s="3">
-        <v>92000</v>
+        <v>90940</v>
       </c>
       <c r="S16" s="3">
-        <v>100280</v>
+        <v>99125</v>
       </c>
       <c r="T16" s="3">
-        <v>6929</v>
+        <v>-1</v>
       </c>
       <c r="U16" s="3">
         <v>0</v>
@@ -2443,7 +2608,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>24</v>
@@ -2458,10 +2623,10 @@
         <v>27</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="I17" s="3">
-        <v>36878</v>
+        <v>38263</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>29</v>
@@ -2482,19 +2647,19 @@
         <v>55</v>
       </c>
       <c r="P17" s="3">
-        <v>6413</v>
+        <v>8725</v>
       </c>
       <c r="Q17" s="3">
         <v>8000</v>
       </c>
       <c r="R17" s="3">
-        <v>71250</v>
+        <v>96940</v>
       </c>
       <c r="S17" s="3">
-        <v>77663</v>
+        <v>105665</v>
       </c>
       <c r="T17" s="3">
-        <v>6926</v>
+        <v>-1</v>
       </c>
       <c r="U17" s="3">
         <v>0</v>
@@ -2526,10 +2691,10 @@
         <v>27</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="I18" s="3">
-        <v>36878</v>
+        <v>38263</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>29</v>
@@ -2538,7 +2703,7 @@
         <v>30</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>32</v>
@@ -2550,19 +2715,19 @@
         <v>55</v>
       </c>
       <c r="P18" s="3">
-        <v>8442</v>
+        <v>6340</v>
       </c>
       <c r="Q18" s="3">
         <v>8000</v>
       </c>
       <c r="R18" s="3">
-        <v>93800</v>
+        <v>70440</v>
       </c>
       <c r="S18" s="3">
-        <v>102242</v>
+        <v>76780</v>
       </c>
       <c r="T18" s="3">
-        <v>6929</v>
+        <v>-1</v>
       </c>
       <c r="U18" s="3">
         <v>0</v>
@@ -2579,7 +2744,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>24</v>
@@ -2594,10 +2759,10 @@
         <v>27</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="I19" s="3">
-        <v>36878</v>
+        <v>38263</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>29</v>
@@ -2606,7 +2771,7 @@
         <v>30</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>32</v>
@@ -2618,19 +2783,19 @@
         <v>55</v>
       </c>
       <c r="P19" s="3">
-        <v>8280</v>
+        <v>8725</v>
       </c>
       <c r="Q19" s="3">
         <v>8000</v>
       </c>
       <c r="R19" s="3">
-        <v>92000</v>
+        <v>96940</v>
       </c>
       <c r="S19" s="3">
-        <v>100280</v>
+        <v>105665</v>
       </c>
       <c r="T19" s="3">
-        <v>6929</v>
+        <v>-1</v>
       </c>
       <c r="U19" s="3">
         <v>0</v>
@@ -2647,7 +2812,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>24</v>
@@ -2662,10 +2827,10 @@
         <v>27</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="I20" s="3">
-        <v>36878</v>
+        <v>38263</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>29</v>
@@ -2674,7 +2839,7 @@
         <v>30</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>32</v>
@@ -2686,19 +2851,19 @@
         <v>55</v>
       </c>
       <c r="P20" s="3">
-        <v>8442</v>
+        <v>8725</v>
       </c>
       <c r="Q20" s="3">
         <v>8000</v>
       </c>
       <c r="R20" s="3">
-        <v>93800</v>
+        <v>96940</v>
       </c>
       <c r="S20" s="3">
-        <v>102242</v>
+        <v>105665</v>
       </c>
       <c r="T20" s="3">
-        <v>6929</v>
+        <v>-1</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -2715,7 +2880,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>24</v>
@@ -2730,10 +2895,10 @@
         <v>27</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="I21" s="3">
-        <v>36878</v>
+        <v>38263</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>29</v>
@@ -2742,7 +2907,7 @@
         <v>30</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>32</v>
@@ -2754,19 +2919,19 @@
         <v>55</v>
       </c>
       <c r="P21" s="3">
-        <v>8280</v>
+        <v>6857</v>
       </c>
       <c r="Q21" s="3">
         <v>8000</v>
       </c>
       <c r="R21" s="3">
-        <v>92000</v>
+        <v>76190</v>
       </c>
       <c r="S21" s="3">
-        <v>100280</v>
+        <v>83047</v>
       </c>
       <c r="T21" s="3">
-        <v>6929</v>
+        <v>-1</v>
       </c>
       <c r="U21" s="3">
         <v>0</v>
@@ -2783,7 +2948,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>24</v>
@@ -2798,10 +2963,10 @@
         <v>27</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I22" s="3">
-        <v>36878</v>
+        <v>38263</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>29</v>
@@ -2810,7 +2975,7 @@
         <v>30</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>32</v>
@@ -2822,19 +2987,19 @@
         <v>55</v>
       </c>
       <c r="P22" s="3">
-        <v>8280</v>
+        <v>8725</v>
       </c>
       <c r="Q22" s="3">
         <v>8000</v>
       </c>
       <c r="R22" s="3">
-        <v>92000</v>
+        <v>96940</v>
       </c>
       <c r="S22" s="3">
-        <v>100280</v>
+        <v>105665</v>
       </c>
       <c r="T22" s="3">
-        <v>6929</v>
+        <v>-1</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -2851,7 +3016,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>24</v>
@@ -2866,10 +3031,10 @@
         <v>27</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="I23" s="3">
-        <v>36878</v>
+        <v>38263</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>29</v>
@@ -2878,7 +3043,7 @@
         <v>30</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>32</v>
@@ -2890,19 +3055,19 @@
         <v>55</v>
       </c>
       <c r="P23" s="3">
-        <v>8442</v>
+        <v>8887</v>
       </c>
       <c r="Q23" s="3">
         <v>8000</v>
       </c>
       <c r="R23" s="3">
-        <v>93800</v>
+        <v>98740</v>
       </c>
       <c r="S23" s="3">
-        <v>102242</v>
+        <v>107627</v>
       </c>
       <c r="T23" s="3">
-        <v>6929</v>
+        <v>-1</v>
       </c>
       <c r="U23" s="3">
         <v>0</v>
@@ -2919,7 +3084,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>24</v>
@@ -2934,10 +3099,10 @@
         <v>27</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="I24" s="3">
-        <v>36878</v>
+        <v>38263</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>29</v>
@@ -2946,7 +3111,7 @@
         <v>30</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>32</v>
@@ -2958,19 +3123,19 @@
         <v>55</v>
       </c>
       <c r="P24" s="3">
-        <v>8280</v>
+        <v>8185</v>
       </c>
       <c r="Q24" s="3">
         <v>8000</v>
       </c>
       <c r="R24" s="3">
-        <v>92000</v>
+        <v>90940</v>
       </c>
       <c r="S24" s="3">
-        <v>100280</v>
+        <v>99125</v>
       </c>
       <c r="T24" s="3">
-        <v>6929</v>
+        <v>-1</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -2987,7 +3152,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>24</v>
@@ -3002,10 +3167,10 @@
         <v>27</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="I25" s="3">
-        <v>36878</v>
+        <v>38263</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>29</v>
@@ -3014,7 +3179,7 @@
         <v>30</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>32</v>
@@ -3026,19 +3191,19 @@
         <v>55</v>
       </c>
       <c r="P25" s="3">
-        <v>7740</v>
+        <v>6857</v>
       </c>
       <c r="Q25" s="3">
         <v>8000</v>
       </c>
       <c r="R25" s="3">
-        <v>86000</v>
+        <v>76190</v>
       </c>
       <c r="S25" s="3">
-        <v>93740</v>
+        <v>83047</v>
       </c>
       <c r="T25" s="3">
-        <v>6929</v>
+        <v>-1</v>
       </c>
       <c r="U25" s="3">
         <v>0</v>
@@ -3055,7 +3220,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>24</v>
@@ -3070,10 +3235,10 @@
         <v>27</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I26" s="3">
-        <v>36878</v>
+        <v>38263</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>29</v>
@@ -3082,7 +3247,7 @@
         <v>30</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>32</v>
@@ -3094,19 +3259,19 @@
         <v>55</v>
       </c>
       <c r="P26" s="3">
-        <v>8280</v>
+        <v>8185</v>
       </c>
       <c r="Q26" s="3">
         <v>8000</v>
       </c>
       <c r="R26" s="3">
-        <v>92000</v>
+        <v>90940</v>
       </c>
       <c r="S26" s="3">
-        <v>100280</v>
+        <v>99125</v>
       </c>
       <c r="T26" s="3">
-        <v>6929</v>
+        <v>-1</v>
       </c>
       <c r="U26" s="3">
         <v>0</v>
@@ -3123,7 +3288,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>24</v>
@@ -3138,10 +3303,10 @@
         <v>27</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="I27" s="3">
-        <v>36878</v>
+        <v>38263</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>29</v>
@@ -3150,7 +3315,7 @@
         <v>30</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>32</v>
@@ -3162,19 +3327,19 @@
         <v>55</v>
       </c>
       <c r="P27" s="3">
-        <v>8280</v>
+        <v>6857</v>
       </c>
       <c r="Q27" s="3">
         <v>8000</v>
       </c>
       <c r="R27" s="3">
-        <v>92000</v>
+        <v>76190</v>
       </c>
       <c r="S27" s="3">
-        <v>100280</v>
+        <v>83047</v>
       </c>
       <c r="T27" s="3">
-        <v>6929</v>
+        <v>-1</v>
       </c>
       <c r="U27" s="3">
         <v>0</v>
@@ -3191,7 +3356,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>24</v>
@@ -3206,10 +3371,10 @@
         <v>27</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I28" s="3">
-        <v>36878</v>
+        <v>38263</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>29</v>
@@ -3218,7 +3383,7 @@
         <v>30</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>32</v>
@@ -3230,19 +3395,19 @@
         <v>55</v>
       </c>
       <c r="P28" s="3">
-        <v>7740</v>
+        <v>6857</v>
       </c>
       <c r="Q28" s="3">
         <v>8000</v>
       </c>
       <c r="R28" s="3">
-        <v>86000</v>
+        <v>76190</v>
       </c>
       <c r="S28" s="3">
-        <v>93740</v>
+        <v>83047</v>
       </c>
       <c r="T28" s="3">
-        <v>6929</v>
+        <v>-1</v>
       </c>
       <c r="U28" s="3">
         <v>0</v>
@@ -3251,55 +3416,1550 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="2" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A29" s="9">
-        <v>0</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10">
-        <v>0</v>
-      </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10">
-        <v>1575</v>
-      </c>
-      <c r="P29" s="10">
-        <v>222094</v>
-      </c>
-      <c r="Q29" s="10">
-        <v>216000</v>
-      </c>
-      <c r="R29" s="10">
-        <v>2467700</v>
-      </c>
-      <c r="S29" s="10">
-        <v>2689794</v>
-      </c>
-      <c r="T29" s="10">
-        <v>0</v>
-      </c>
-      <c r="U29" s="10">
-        <v>0</v>
-      </c>
-      <c r="V29" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="15.75" thickTop="1"/>
+    <row r="29" spans="1:22" s="2" customFormat="1">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="3">
+        <v>38263</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O29" s="3">
+        <v>55</v>
+      </c>
+      <c r="P29" s="3">
+        <v>6857</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R29" s="3">
+        <v>76190</v>
+      </c>
+      <c r="S29" s="3">
+        <v>83047</v>
+      </c>
+      <c r="T29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" s="2" customFormat="1">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="3">
+        <v>38263</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O30" s="3">
+        <v>55</v>
+      </c>
+      <c r="P30" s="3">
+        <v>9481</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R30" s="3">
+        <v>105340</v>
+      </c>
+      <c r="S30" s="3">
+        <v>114821</v>
+      </c>
+      <c r="T30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" s="2" customFormat="1">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I31" s="3">
+        <v>38263</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O31" s="3">
+        <v>55</v>
+      </c>
+      <c r="P31" s="3">
+        <v>9481</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R31" s="3">
+        <v>105340</v>
+      </c>
+      <c r="S31" s="3">
+        <v>114821</v>
+      </c>
+      <c r="T31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" s="2" customFormat="1">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I32" s="3">
+        <v>38263</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O32" s="3">
+        <v>55</v>
+      </c>
+      <c r="P32" s="3">
+        <v>8887</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R32" s="3">
+        <v>98740</v>
+      </c>
+      <c r="S32" s="3">
+        <v>107627</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" s="2" customFormat="1">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I33" s="3">
+        <v>38263</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O33" s="3">
+        <v>55</v>
+      </c>
+      <c r="P33" s="3">
+        <v>8725</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R33" s="3">
+        <v>96940</v>
+      </c>
+      <c r="S33" s="3">
+        <v>105665</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" s="2" customFormat="1">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I34" s="3">
+        <v>38263</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O34" s="3">
+        <v>55</v>
+      </c>
+      <c r="P34" s="3">
+        <v>9481</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R34" s="3">
+        <v>105340</v>
+      </c>
+      <c r="S34" s="3">
+        <v>114821</v>
+      </c>
+      <c r="T34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" s="2" customFormat="1">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I35" s="3">
+        <v>38263</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O35" s="3">
+        <v>55</v>
+      </c>
+      <c r="P35" s="3">
+        <v>9481</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R35" s="3">
+        <v>105340</v>
+      </c>
+      <c r="S35" s="3">
+        <v>114821</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" s="2" customFormat="1">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" s="3">
+        <v>38263</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O36" s="3">
+        <v>55</v>
+      </c>
+      <c r="P36" s="3">
+        <v>8185</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R36" s="3">
+        <v>90940</v>
+      </c>
+      <c r="S36" s="3">
+        <v>99125</v>
+      </c>
+      <c r="T36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U36" s="3">
+        <v>0</v>
+      </c>
+      <c r="V36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" s="2" customFormat="1">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I37" s="3">
+        <v>38263</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O37" s="3">
+        <v>55</v>
+      </c>
+      <c r="P37" s="3">
+        <v>8185</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R37" s="3">
+        <v>90940</v>
+      </c>
+      <c r="S37" s="3">
+        <v>99125</v>
+      </c>
+      <c r="T37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U37" s="3">
+        <v>0</v>
+      </c>
+      <c r="V37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" s="2" customFormat="1">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" s="3">
+        <v>38263</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O38" s="3">
+        <v>55</v>
+      </c>
+      <c r="P38" s="3">
+        <v>8887</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R38" s="3">
+        <v>98740</v>
+      </c>
+      <c r="S38" s="3">
+        <v>107627</v>
+      </c>
+      <c r="T38" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U38" s="3">
+        <v>0</v>
+      </c>
+      <c r="V38" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" s="2" customFormat="1">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="3">
+        <v>38263</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O39" s="3">
+        <v>55</v>
+      </c>
+      <c r="P39" s="3">
+        <v>6857</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R39" s="3">
+        <v>76190</v>
+      </c>
+      <c r="S39" s="3">
+        <v>83047</v>
+      </c>
+      <c r="T39" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U39" s="3">
+        <v>0</v>
+      </c>
+      <c r="V39" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" s="2" customFormat="1">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="3">
+        <v>38263</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O40" s="3">
+        <v>55</v>
+      </c>
+      <c r="P40" s="3">
+        <v>6857</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R40" s="3">
+        <v>76190</v>
+      </c>
+      <c r="S40" s="3">
+        <v>83047</v>
+      </c>
+      <c r="T40" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U40" s="3">
+        <v>0</v>
+      </c>
+      <c r="V40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" s="2" customFormat="1">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="3">
+        <v>38263</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O41" s="3">
+        <v>55</v>
+      </c>
+      <c r="P41" s="3">
+        <v>6857</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R41" s="3">
+        <v>76190</v>
+      </c>
+      <c r="S41" s="3">
+        <v>83047</v>
+      </c>
+      <c r="T41" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" s="2" customFormat="1">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="3">
+        <v>38263</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O42" s="3">
+        <v>55</v>
+      </c>
+      <c r="P42" s="3">
+        <v>8725</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R42" s="3">
+        <v>96940</v>
+      </c>
+      <c r="S42" s="3">
+        <v>105665</v>
+      </c>
+      <c r="T42" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" s="2" customFormat="1">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I43" s="3">
+        <v>38263</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O43" s="3">
+        <v>55</v>
+      </c>
+      <c r="P43" s="3">
+        <v>8725</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R43" s="3">
+        <v>96940</v>
+      </c>
+      <c r="S43" s="3">
+        <v>105665</v>
+      </c>
+      <c r="T43" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" s="2" customFormat="1">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I44" s="3">
+        <v>38263</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O44" s="3">
+        <v>55</v>
+      </c>
+      <c r="P44" s="3">
+        <v>8725</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R44" s="3">
+        <v>96940</v>
+      </c>
+      <c r="S44" s="3">
+        <v>105665</v>
+      </c>
+      <c r="T44" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" s="2" customFormat="1">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I45" s="3">
+        <v>38263</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O45" s="3">
+        <v>55</v>
+      </c>
+      <c r="P45" s="3">
+        <v>9481</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R45" s="3">
+        <v>105340</v>
+      </c>
+      <c r="S45" s="3">
+        <v>114821</v>
+      </c>
+      <c r="T45" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" s="2" customFormat="1">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I46" s="3">
+        <v>38263</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O46" s="3">
+        <v>55</v>
+      </c>
+      <c r="P46" s="3">
+        <v>8725</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R46" s="3">
+        <v>96940</v>
+      </c>
+      <c r="S46" s="3">
+        <v>105665</v>
+      </c>
+      <c r="T46" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" s="2" customFormat="1">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I47" s="3">
+        <v>38263</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O47" s="3">
+        <v>55</v>
+      </c>
+      <c r="P47" s="3">
+        <v>8725</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R47" s="3">
+        <v>96940</v>
+      </c>
+      <c r="S47" s="3">
+        <v>105665</v>
+      </c>
+      <c r="T47" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" s="2" customFormat="1">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I48" s="3">
+        <v>38263</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O48" s="3">
+        <v>55</v>
+      </c>
+      <c r="P48" s="3">
+        <v>8725</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R48" s="3">
+        <v>96940</v>
+      </c>
+      <c r="S48" s="3">
+        <v>105665</v>
+      </c>
+      <c r="T48" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" s="2" customFormat="1">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I49" s="3">
+        <v>38263</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O49" s="3">
+        <v>55</v>
+      </c>
+      <c r="P49" s="3">
+        <v>8725</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R49" s="3">
+        <v>96940</v>
+      </c>
+      <c r="S49" s="3">
+        <v>105665</v>
+      </c>
+      <c r="T49" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" s="2" customFormat="1">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I50" s="3">
+        <v>38263</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O50" s="3">
+        <v>55</v>
+      </c>
+      <c r="P50" s="3">
+        <v>9481</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R50" s="3">
+        <v>105340</v>
+      </c>
+      <c r="S50" s="3">
+        <v>114821</v>
+      </c>
+      <c r="T50" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" s="2" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A51" s="9">
+        <v>0</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10">
+        <v>0</v>
+      </c>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10">
+        <v>3272</v>
+      </c>
+      <c r="P51" s="10">
+        <v>410911</v>
+      </c>
+      <c r="Q51" s="10">
+        <v>392000</v>
+      </c>
+      <c r="R51" s="10">
+        <v>4565510</v>
+      </c>
+      <c r="S51" s="10">
+        <v>4976421</v>
+      </c>
+      <c r="T51" s="10">
+        <v>0</v>
+      </c>
+      <c r="U51" s="10">
+        <v>0</v>
+      </c>
+      <c r="V51" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="15.75" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>